--- a/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2010.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2010.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>51.6322844767</v>
+        <v>516322.844767</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>497.9526851481</v>
+        <v>4979526.851481</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>44.2214047777</v>
+        <v>442214.047777</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>30.7727254014</v>
+        <v>307727.254014</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>243.5400634236</v>
+        <v>2435400.634236</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>14.814109154</v>
+        <v>148141.09154</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>21.8775135667</v>
+        <v>218775.135667</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>19.3022860803</v>
+        <v>193022.860803</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>129.172779599</v>
+        <v>1291727.79599</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>44.0535440702</v>
+        <v>440535.440702</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>56.2376002783</v>
+        <v>562376.002783</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>137.0447626902</v>
+        <v>1370447.626902</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>38.2544112311</v>
+        <v>382544.112311</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>41.3969648304</v>
+        <v>413969.648304</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>327.7881877016</v>
+        <v>3277881.877016</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>31.5103116836</v>
+        <v>315103.116836</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>184.0608343613</v>
+        <v>1840608.343613</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>86.2604845565</v>
+        <v>862604.845565</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>12.6095370639</v>
+        <v>126095.370639</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>24.5231516934</v>
+        <v>245231.516934</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>3906.5753</v>
+        <v>39065753</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>126.9039862582</v>
+        <v>1269039.862582</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>50.916111985</v>
+        <v>509161.11985</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>59.7517684848</v>
+        <v>597517.684848</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>329.1199522458</v>
+        <v>3291199.522458</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>72.3340460448</v>
+        <v>723340.460448</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>103.8485925313</v>
+        <v>1038485.925313</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>3.2390012683</v>
+        <v>32390.012683</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>27.5961149776</v>
+        <v>275961.149776</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>37.7203382212</v>
+        <v>377203.382212</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>106.4031043151</v>
+        <v>1064031.043151</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>88.4903447672</v>
+        <v>884903.447672</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
